--- a/biology/Médecine/Abraham_Groves/Abraham_Groves.xlsx
+++ b/biology/Médecine/Abraham_Groves/Abraham_Groves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abraham Groves est un médecin et chirurgien canadien, né le 8 septembre 1847 et mort le 12 mai 1935[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraham Groves est un médecin et chirurgien canadien, né le 8 septembre 1847 et mort le 12 mai 1935,.
 Il est à l'origine de plusieurs avancées décisives dans le domaine chirurgical, notamment pour ce qui concerne l'asepsie. C'est le premier chirurgien du continent nord-américain à réaliser une appendicectomie en 1883, et le premier canadien à réussir une opération de lithotomie par voie haute (sus-pubienne).
-Il crée en 1902 l'hôpital Royal Victoria dont il fait don en 1935 à la ville de Fergus (Ontario) ; cet hôpital prend ensuite le nom de Groves Memorial Community Hospital sous lequel il est désormais connu[3]. 
+Il crée en 1902 l'hôpital Royal Victoria dont il fait don en 1935 à la ville de Fergus (Ontario) ; cet hôpital prend ensuite le nom de Groves Memorial Community Hospital sous lequel il est désormais connu. 
 </t>
         </is>
       </c>
